--- a/dpworldtour_2022-2023_scoringaverage.xlsx
+++ b/dpworldtour_2022-2023_scoringaverage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4804853A-839A-4F17-BC95-5F676735FB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F74D0-52E7-408B-B06E-EBC1826B3DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2850D2F4-5624-407E-82EB-77E8F851C3E6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="181">
   <si>
     <r>
       <t>MCILROY, </t>
@@ -2483,13 +2483,31 @@
   </si>
   <si>
     <t>DP World Tour</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>TOUR</t>
+  </si>
+  <si>
+    <t>TOTAL ROUNDS</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2509,6 +2527,14 @@
       <color rgb="FF060016"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2537,7 +2563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2558,13 +2584,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2588,13 +2617,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2649,13 +2678,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2710,13 +2739,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2771,13 +2800,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2832,13 +2861,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2893,13 +2922,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2954,13 +2983,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3015,13 +3044,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3076,13 +3105,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3137,13 +3166,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3198,13 +3227,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3259,13 +3288,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3320,13 +3349,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3381,13 +3410,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3442,13 +3471,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3503,13 +3532,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3564,13 +3593,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3625,13 +3654,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3686,13 +3715,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3747,13 +3776,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3808,13 +3837,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3869,13 +3898,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3930,13 +3959,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3991,13 +4020,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4052,13 +4081,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4113,13 +4142,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4174,13 +4203,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4235,13 +4264,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4296,13 +4325,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4357,13 +4386,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4418,13 +4447,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4479,13 +4508,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4540,13 +4569,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4601,13 +4630,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4662,13 +4691,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4723,13 +4752,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4784,13 +4813,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4845,13 +4874,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4906,13 +4935,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4967,13 +4996,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5028,13 +5057,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5089,13 +5118,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5150,13 +5179,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5211,13 +5240,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5272,13 +5301,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5333,13 +5362,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5394,13 +5423,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5455,13 +5484,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5516,13 +5545,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5577,13 +5606,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5638,13 +5667,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5699,13 +5728,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5760,13 +5789,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5821,13 +5850,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5882,13 +5911,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5943,13 +5972,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6004,13 +6033,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6065,13 +6094,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6126,13 +6155,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6187,13 +6216,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6248,13 +6277,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6309,13 +6338,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6370,13 +6399,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6431,13 +6460,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6492,13 +6521,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6553,13 +6582,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6614,13 +6643,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6675,13 +6704,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6736,13 +6765,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6797,13 +6826,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6858,13 +6887,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6919,13 +6948,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6980,13 +7009,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7041,13 +7070,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7102,13 +7131,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7163,13 +7192,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7224,13 +7253,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7285,13 +7314,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7346,13 +7375,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7407,13 +7436,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7468,13 +7497,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7529,13 +7558,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7590,13 +7619,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7651,13 +7680,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7712,13 +7741,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7773,13 +7802,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7834,13 +7863,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7895,13 +7924,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7956,13 +7985,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8017,13 +8046,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8078,13 +8107,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8139,13 +8168,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8200,13 +8229,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8261,13 +8290,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8322,13 +8351,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8383,13 +8412,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8444,13 +8473,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8505,13 +8534,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8566,13 +8595,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8627,13 +8656,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8688,13 +8717,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8749,13 +8778,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8810,13 +8839,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8871,13 +8900,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8932,13 +8961,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8993,13 +9022,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9054,13 +9083,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9115,13 +9144,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9176,13 +9205,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9237,13 +9266,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9298,13 +9327,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9359,13 +9388,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9420,13 +9449,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9481,13 +9510,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9542,13 +9571,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9603,13 +9632,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9664,13 +9693,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9725,13 +9754,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9786,13 +9815,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9847,13 +9876,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9908,13 +9937,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9969,13 +9998,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10030,13 +10059,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10091,13 +10120,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10152,13 +10181,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10213,13 +10242,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10274,13 +10303,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10335,13 +10364,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10396,13 +10425,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10457,13 +10486,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10518,13 +10547,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10579,13 +10608,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10640,13 +10669,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10701,13 +10730,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10762,13 +10791,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10823,13 +10852,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10884,13 +10913,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10945,13 +10974,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11006,13 +11035,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11067,13 +11096,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11128,13 +11157,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11189,13 +11218,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11250,13 +11279,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11311,13 +11340,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11372,13 +11401,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11433,13 +11462,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11494,13 +11523,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11555,13 +11584,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11616,13 +11645,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11677,13 +11706,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11738,13 +11767,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11799,13 +11828,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11860,13 +11889,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11921,13 +11950,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11982,13 +12011,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12043,13 +12072,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12104,13 +12133,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12165,13 +12194,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12226,13 +12255,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12287,13 +12316,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12348,13 +12377,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12409,13 +12438,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12470,13 +12499,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12531,13 +12560,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12592,13 +12621,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12653,13 +12682,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12714,13 +12743,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12775,13 +12804,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12836,13 +12865,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12897,13 +12926,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12958,13 +12987,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13019,13 +13048,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13080,13 +13109,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13141,13 +13170,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13498,210 +13527,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A892668-2D8F-489C-A156-54EEA39EBF4E}">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
     <col min="3" max="3" width="24.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1">
-        <v>68.8</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
-        <v>69.53</v>
+        <v>68.8</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>3</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1">
-        <v>69.59</v>
+        <v>69.53</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>4</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1">
-        <v>69.739999999999995</v>
+        <v>69.59</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>5</v>
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1">
-        <v>69.8</v>
+        <v>69.739999999999995</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>6</v>
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1">
-        <v>69.81</v>
+        <v>69.8</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>7</v>
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1">
-        <v>69.84</v>
+        <v>69.81</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>8</v>
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1">
-        <v>69.900000000000006</v>
+        <v>69.84</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>9</v>
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
-        <v>69.94</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>10</v>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1">
-        <v>70</v>
+        <v>69.94</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>11</v>
+    <row r="11" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>70</v>
@@ -13711,213 +13741,213 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>12</v>
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
-        <v>70.08</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>13</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <v>90</v>
       </c>
       <c r="E13" s="1">
-        <v>70.11</v>
+        <v>70.08</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>14</v>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1">
-        <v>70.16</v>
+        <v>70.11</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>15</v>
+    <row r="15" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1">
-        <v>70.180000000000007</v>
+        <v>70.16</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>16</v>
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1">
-        <v>70.2</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>17</v>
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1">
-        <v>70.22</v>
+        <v>70.2</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>18</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1">
-        <v>70.25</v>
+        <v>70.22</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>19</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
-        <v>70.260000000000005</v>
+        <v>70.25</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>20</v>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1">
-        <v>70.3</v>
+        <v>70.260000000000005</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>21</v>
+    <row r="21" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1">
-        <v>70.349999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>22</v>
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1">
-        <v>70.38</v>
+        <v>70.349999999999994</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>23</v>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E23" s="1">
         <v>70.38</v>
@@ -13926,88 +13956,88 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>24</v>
+    <row r="24" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1">
-        <v>70.39</v>
+        <v>70.38</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>25</v>
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1">
-        <v>70.42</v>
+        <v>70.39</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>26</v>
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1">
-        <v>70.430000000000007</v>
+        <v>70.42</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>27</v>
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1">
-        <v>70.44</v>
+        <v>70.430000000000007</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>28</v>
+      <c r="A28" s="1">
+        <v>27</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1">
         <v>70.44</v>
@@ -14017,15 +14047,15 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>29</v>
+      <c r="A29" s="1">
+        <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1">
         <v>70.44</v>
@@ -14035,33 +14065,33 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>30</v>
+      <c r="A30" s="1">
+        <v>29</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1">
-        <v>70.45</v>
+        <v>70.44</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>31</v>
+      <c r="A31" s="1">
+        <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E31" s="1">
         <v>70.45</v>
@@ -14071,51 +14101,51 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>32</v>
+      <c r="A32" s="1">
+        <v>31</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1">
-        <v>70.459999999999994</v>
+        <v>70.45</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>33</v>
+      <c r="A33" s="1">
+        <v>32</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E33" s="1">
-        <v>70.47</v>
+        <v>70.459999999999994</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>34</v>
+      <c r="A34" s="1">
+        <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1">
         <v>70.47</v>
@@ -14125,33 +14155,33 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>35</v>
+      <c r="A35" s="1">
+        <v>34</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1">
-        <v>70.48</v>
+        <v>70.47</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>36</v>
+      <c r="A36" s="1">
+        <v>35</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" s="1">
         <v>70.48</v>
@@ -14161,123 +14191,123 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>37</v>
+      <c r="A37" s="1">
+        <v>36</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E37" s="1">
-        <v>70.489999999999995</v>
+        <v>70.48</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>38</v>
+      <c r="A38" s="1">
+        <v>37</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1">
-        <v>70.5</v>
+        <v>70.489999999999995</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>39</v>
+      <c r="A39" s="1">
+        <v>38</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1">
-        <v>70.52</v>
+        <v>70.5</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>40</v>
+      <c r="A40" s="1">
+        <v>39</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1">
-        <v>70.53</v>
+        <v>70.52</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>41</v>
+      <c r="A41" s="1">
+        <v>40</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E41" s="1">
-        <v>70.540000000000006</v>
+        <v>70.53</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>42</v>
+      <c r="A42" s="1">
+        <v>41</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1">
-        <v>70.59</v>
+        <v>70.540000000000006</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>43</v>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E43" s="1">
         <v>70.59</v>
@@ -14286,34 +14316,34 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>44</v>
+    <row r="44" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1">
-        <v>70.61</v>
+        <v>70.59</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>45</v>
+      <c r="A45" s="1">
+        <v>44</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1">
         <v>70.61</v>
@@ -14322,88 +14352,88 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>46</v>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E46" s="1">
-        <v>70.64</v>
+        <v>70.61</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>47</v>
+    <row r="47" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="E47" s="1">
-        <v>70.67</v>
+        <v>70.64</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>48</v>
+      <c r="A48" s="1">
+        <v>47</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E48" s="1">
-        <v>70.680000000000007</v>
+        <v>70.67</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>49</v>
+      <c r="A49" s="1">
+        <v>48</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="2">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E49" s="1">
-        <v>70.69</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>50</v>
+      <c r="A50" s="1">
+        <v>49</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E50" s="1">
         <v>70.69</v>
@@ -14413,105 +14443,105 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <v>51</v>
+      <c r="A51" s="1">
+        <v>50</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="2">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E51" s="1">
-        <v>70.7</v>
+        <v>70.69</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>52</v>
+      <c r="A52" s="1">
+        <v>51</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E52" s="1">
-        <v>70.709999999999994</v>
+        <v>70.7</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>53</v>
+      <c r="A53" s="1">
+        <v>52</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="2">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E53" s="1">
-        <v>70.739999999999995</v>
+        <v>70.709999999999994</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <v>54</v>
+      <c r="A54" s="1">
+        <v>53</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E54" s="1">
-        <v>70.75</v>
+        <v>70.739999999999995</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <v>55</v>
+      <c r="A55" s="1">
+        <v>54</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E55" s="1">
-        <v>70.760000000000005</v>
+        <v>70.75</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <v>56</v>
+      <c r="A56" s="1">
+        <v>55</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="2">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E56" s="1">
         <v>70.760000000000005</v>
@@ -14521,15 +14551,15 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>57</v>
+      <c r="A57" s="1">
+        <v>56</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E57" s="1">
         <v>70.760000000000005</v>
@@ -14539,69 +14569,69 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>58</v>
+      <c r="A58" s="1">
+        <v>57</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="E58" s="1">
-        <v>70.8</v>
+        <v>70.760000000000005</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
-        <v>59</v>
+      <c r="A59" s="1">
+        <v>58</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E59" s="1">
-        <v>70.81</v>
+        <v>70.8</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <v>60</v>
+      <c r="A60" s="1">
+        <v>59</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="2">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E60" s="1">
-        <v>70.819999999999993</v>
+        <v>70.81</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
-        <v>61</v>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E61" s="1">
         <v>70.819999999999993</v>
@@ -14610,70 +14640,70 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <v>62</v>
+    <row r="62" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="2">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E62" s="1">
-        <v>70.83</v>
+        <v>70.819999999999993</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
-        <v>63</v>
+      <c r="A63" s="1">
+        <v>62</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E63" s="1">
-        <v>70.849999999999994</v>
+        <v>70.83</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <v>64</v>
+      <c r="A64" s="1">
+        <v>63</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1">
-        <v>70.86</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>65</v>
+      <c r="A65" s="1">
+        <v>64</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E65" s="1">
         <v>70.86</v>
@@ -14683,15 +14713,15 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <v>66</v>
+      <c r="A66" s="1">
+        <v>65</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E66" s="1">
         <v>70.86</v>
@@ -14701,51 +14731,51 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
-        <v>67</v>
+      <c r="A67" s="1">
+        <v>66</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E67" s="1">
-        <v>70.87</v>
+        <v>70.86</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
-        <v>68</v>
+      <c r="A68" s="1">
+        <v>67</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="2">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E68" s="1">
-        <v>70.88</v>
+        <v>70.87</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <v>69</v>
+      <c r="A69" s="1">
+        <v>68</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E69" s="1">
         <v>70.88</v>
@@ -14755,51 +14785,51 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <v>70</v>
+      <c r="A70" s="1">
+        <v>69</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E70" s="1">
-        <v>70.91</v>
+        <v>70.88</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
-        <v>71</v>
+      <c r="A71" s="1">
+        <v>70</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E71" s="1">
-        <v>70.98</v>
+        <v>70.91</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <v>72</v>
+      <c r="A72" s="1">
+        <v>71</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="2">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E72" s="1">
         <v>70.98</v>
@@ -14809,69 +14839,69 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <v>73</v>
+      <c r="A73" s="1">
+        <v>72</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E73" s="1">
-        <v>71</v>
+        <v>70.98</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <v>74</v>
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="2">
         <v>82</v>
       </c>
       <c r="E74" s="1">
-        <v>71.02</v>
+        <v>71</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <v>75</v>
+    <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E75" s="1">
-        <v>71.03</v>
+        <v>71.02</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
-        <v>76</v>
+      <c r="A76" s="1">
+        <v>75</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="2">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E76" s="1">
         <v>71.03</v>
@@ -14881,33 +14911,33 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>77</v>
+      <c r="A77" s="1">
+        <v>76</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="2">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E77" s="1">
-        <v>71.040000000000006</v>
+        <v>71.03</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
-        <v>78</v>
+      <c r="A78" s="1">
+        <v>77</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E78" s="1">
         <v>71.040000000000006</v>
@@ -14917,141 +14947,141 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
-        <v>79</v>
+      <c r="A79" s="1">
+        <v>78</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="2">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E79" s="1">
-        <v>71.069999999999993</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
-        <v>80</v>
+      <c r="A80" s="1">
+        <v>79</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E80" s="1">
-        <v>71.08</v>
+        <v>71.069999999999993</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
-        <v>81</v>
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E81" s="1">
-        <v>71.099999999999994</v>
+        <v>71.08</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
-        <v>82</v>
+    <row r="82" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D82" s="2">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E82" s="1">
-        <v>71.11</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
-        <v>83</v>
+      <c r="A83" s="1">
+        <v>82</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" s="2">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E83" s="1">
-        <v>71.13</v>
+        <v>71.11</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
-        <v>84</v>
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" s="2">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E84" s="1">
-        <v>71.150000000000006</v>
+        <v>71.13</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
-        <v>85</v>
+    <row r="85" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" s="2">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E85" s="1">
-        <v>71.16</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
-        <v>86</v>
+      <c r="A86" s="1">
+        <v>85</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="2">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E86" s="1">
         <v>71.16</v>
@@ -15060,34 +15090,34 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
-        <v>87</v>
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E87" s="1">
-        <v>71.17</v>
+        <v>71.16</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
-        <v>88</v>
+    <row r="88" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E88" s="1">
         <v>71.17</v>
@@ -15097,33 +15127,33 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
-        <v>89</v>
+      <c r="A89" s="1">
+        <v>88</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E89" s="1">
-        <v>71.180000000000007</v>
+        <v>71.17</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
-        <v>90</v>
+      <c r="A90" s="1">
+        <v>89</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="2">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E90" s="1">
         <v>71.180000000000007</v>
@@ -15133,15 +15163,15 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
-        <v>91</v>
+      <c r="A91" s="1">
+        <v>90</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91" s="2">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E91" s="1">
         <v>71.180000000000007</v>
@@ -15151,69 +15181,69 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
-        <v>92</v>
+      <c r="A92" s="1">
+        <v>91</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="2">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E92" s="1">
-        <v>71.19</v>
+        <v>71.180000000000007</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
-        <v>93</v>
+      <c r="A93" s="1">
+        <v>92</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="2">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E93" s="1">
-        <v>71.2</v>
+        <v>71.19</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
-        <v>94</v>
+      <c r="A94" s="1">
+        <v>93</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E94" s="1">
-        <v>71.22</v>
+        <v>71.2</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
-        <v>95</v>
+      <c r="A95" s="1">
+        <v>94</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95" s="2">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E95" s="1">
         <v>71.22</v>
@@ -15222,124 +15252,124 @@
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
-        <v>96</v>
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E96" s="1">
-        <v>71.23</v>
+        <v>71.22</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
-        <v>97</v>
+    <row r="97" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E97" s="1">
-        <v>71.239999999999995</v>
+        <v>71.23</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
-        <v>98</v>
+      <c r="A98" s="1">
+        <v>97</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98" s="2">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E98" s="1">
-        <v>71.28</v>
+        <v>71.239999999999995</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
-        <v>99</v>
+      <c r="A99" s="1">
+        <v>98</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" s="2">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E99" s="1">
-        <v>71.290000000000006</v>
+        <v>71.28</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
-        <v>100</v>
+      <c r="A100" s="1">
+        <v>99</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D100" s="2">
         <v>68</v>
       </c>
       <c r="E100" s="1">
-        <v>71.31</v>
+        <v>71.290000000000006</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
-        <v>101</v>
+      <c r="A101" s="1">
+        <v>100</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101" s="2">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E101" s="1">
-        <v>71.33</v>
+        <v>71.31</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
-        <v>102</v>
+      <c r="A102" s="1">
+        <v>101</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E102" s="1">
         <v>71.33</v>
@@ -15349,33 +15379,33 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
-        <v>103</v>
+      <c r="A103" s="1">
+        <v>102</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E103" s="1">
-        <v>71.34</v>
+        <v>71.33</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
-        <v>104</v>
+      <c r="A104" s="1">
+        <v>103</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E104" s="1">
         <v>71.34</v>
@@ -15385,48 +15415,48 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
-        <v>105</v>
+      <c r="A105" s="1">
+        <v>104</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E105" s="1">
-        <v>71.349999999999994</v>
+        <v>71.34</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
-        <v>106</v>
+      <c r="A106" s="1">
+        <v>105</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E106" s="1">
-        <v>71.37</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="8">
-        <v>107</v>
+      <c r="A107" s="1">
+        <v>106</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107" s="2">
         <v>71</v>
@@ -15438,16 +15468,16 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="8">
-        <v>108</v>
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D108" s="2">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E108" s="1">
         <v>71.37</v>
@@ -15456,124 +15486,124 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
-        <v>109</v>
+    <row r="109" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D109" s="2">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E109" s="1">
-        <v>71.38</v>
+        <v>71.37</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
-        <v>110</v>
+      <c r="A110" s="1">
+        <v>109</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110" s="2">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E110" s="1">
-        <v>71.39</v>
+        <v>71.38</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="8">
-        <v>111</v>
+      <c r="A111" s="1">
+        <v>110</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111" s="2">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E111" s="1">
-        <v>71.400000000000006</v>
+        <v>71.39</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="8">
-        <v>112</v>
+      <c r="A112" s="1">
+        <v>111</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D112" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E112" s="1">
-        <v>71.41</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="8">
-        <v>113</v>
+      <c r="A113" s="1">
+        <v>112</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E113" s="1">
-        <v>71.42</v>
+        <v>71.41</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="8">
-        <v>114</v>
+      <c r="A114" s="1">
+        <v>113</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D114" s="2">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E114" s="1">
-        <v>71.430000000000007</v>
+        <v>71.42</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="8">
-        <v>115</v>
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115" s="2">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E115" s="1">
         <v>71.430000000000007</v>
@@ -15582,52 +15612,52 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="8">
-        <v>116</v>
+    <row r="116" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116" s="2">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E116" s="1">
-        <v>71.44</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="8">
-        <v>117</v>
+      <c r="A117" s="1">
+        <v>116</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E117" s="1">
-        <v>71.47</v>
+        <v>71.44</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="8">
-        <v>118</v>
+      <c r="A118" s="1">
+        <v>117</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="2">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E118" s="1">
         <v>71.47</v>
@@ -15637,51 +15667,51 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="8">
-        <v>119</v>
+      <c r="A119" s="1">
+        <v>118</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119" s="2">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E119" s="1">
-        <v>71.48</v>
+        <v>71.47</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="8">
-        <v>120</v>
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E120" s="1">
-        <v>71.489999999999995</v>
+        <v>71.48</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="8">
-        <v>121</v>
+    <row r="121" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D121" s="2">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E121" s="1">
         <v>71.489999999999995</v>
@@ -15691,15 +15721,15 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="8">
-        <v>122</v>
+      <c r="A122" s="1">
+        <v>121</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E122" s="1">
         <v>71.489999999999995</v>
@@ -15709,69 +15739,69 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="8">
-        <v>123</v>
+      <c r="A123" s="1">
+        <v>122</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E123" s="1">
-        <v>71.5</v>
+        <v>71.489999999999995</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="8">
-        <v>124</v>
+      <c r="A124" s="1">
+        <v>123</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D124" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E124" s="1">
-        <v>71.52</v>
+        <v>71.5</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="8">
-        <v>125</v>
+      <c r="A125" s="1">
+        <v>124</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125" s="2">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E125" s="1">
-        <v>71.569999999999993</v>
+        <v>71.52</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="8">
-        <v>126</v>
+      <c r="A126" s="1">
+        <v>125</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D126" s="2">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E126" s="1">
         <v>71.569999999999993</v>
@@ -15781,141 +15811,141 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="8">
-        <v>127</v>
+      <c r="A127" s="1">
+        <v>126</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E127" s="1">
-        <v>71.58</v>
+        <v>71.569999999999993</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="8">
-        <v>128</v>
+      <c r="A128" s="1">
+        <v>127</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D128" s="2">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E128" s="1">
-        <v>71.62</v>
+        <v>71.58</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="8">
-        <v>129</v>
+      <c r="A129" s="1">
+        <v>128</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129" s="2">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E129" s="1">
-        <v>71.63</v>
+        <v>71.62</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="8">
-        <v>130</v>
+      <c r="A130" s="1">
+        <v>129</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E130" s="1">
-        <v>71.66</v>
+        <v>71.63</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="8">
-        <v>131</v>
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E131" s="1">
-        <v>71.680000000000007</v>
+        <v>71.66</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="8">
-        <v>132</v>
+    <row r="132" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132" s="2">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E132" s="1">
-        <v>71.69</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="8">
-        <v>133</v>
+      <c r="A133" s="1">
+        <v>132</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E133" s="1">
-        <v>71.7</v>
+        <v>71.69</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="8">
-        <v>134</v>
+      <c r="A134" s="1">
+        <v>133</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134" s="2">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E134" s="1">
         <v>71.7</v>
@@ -15925,15 +15955,15 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="8">
-        <v>135</v>
+      <c r="A135" s="1">
+        <v>134</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D135" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E135" s="1">
         <v>71.7</v>
@@ -15943,69 +15973,69 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="8">
-        <v>136</v>
+      <c r="A136" s="1">
+        <v>135</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D136" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E136" s="1">
-        <v>71.709999999999994</v>
+        <v>71.7</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="8">
-        <v>137</v>
+      <c r="A137" s="1">
+        <v>136</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D137" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E137" s="1">
-        <v>71.739999999999995</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="8">
-        <v>138</v>
+      <c r="A138" s="1">
+        <v>137</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D138" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E138" s="1">
-        <v>71.760000000000005</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="8">
-        <v>139</v>
+      <c r="A139" s="1">
+        <v>138</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D139" s="2">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E139" s="1">
         <v>71.760000000000005</v>
@@ -16015,267 +16045,267 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="8">
-        <v>140</v>
+      <c r="A140" s="1">
+        <v>139</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D140" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E140" s="1">
-        <v>71.81</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="8">
-        <v>141</v>
+      <c r="A141" s="1">
+        <v>140</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D141" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E141" s="1">
-        <v>71.89</v>
+        <v>71.81</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
-        <v>142</v>
+      <c r="A142" s="1">
+        <v>141</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142" s="2">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E142" s="1">
-        <v>72</v>
+        <v>71.89</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="8">
-        <v>143</v>
+      <c r="A143" s="1">
+        <v>142</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D143" s="2">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E143" s="1">
-        <v>72.010000000000005</v>
+        <v>72</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="8">
-        <v>144</v>
+      <c r="A144" s="1">
+        <v>143</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144" s="2">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E144" s="1">
-        <v>72.03</v>
+        <v>72.010000000000005</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="8">
-        <v>145</v>
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D145" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E145" s="1">
-        <v>72.06</v>
+        <v>72.03</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="8">
-        <v>146</v>
+    <row r="146" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D146" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E146" s="1">
-        <v>72.099999999999994</v>
+        <v>72.06</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="8">
-        <v>147</v>
+      <c r="A147" s="1">
+        <v>146</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D147" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E147" s="1">
-        <v>72.150000000000006</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="8">
-        <v>148</v>
+      <c r="A148" s="1">
+        <v>147</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D148" s="2">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E148" s="1">
-        <v>72.2</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="8">
-        <v>149</v>
+      <c r="A149" s="1">
+        <v>148</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D149" s="2">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E149" s="1">
-        <v>72.239999999999995</v>
+        <v>72.2</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="8">
-        <v>150</v>
+      <c r="A150" s="1">
+        <v>149</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D150" s="2">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E150" s="1">
-        <v>72.42</v>
+        <v>72.239999999999995</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="8">
-        <v>151</v>
+      <c r="A151" s="1">
+        <v>150</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D151" s="2">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E151" s="1">
-        <v>72.48</v>
+        <v>72.42</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="8">
-        <v>152</v>
+      <c r="A152" s="1">
+        <v>151</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D152" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E152" s="1">
-        <v>72.540000000000006</v>
+        <v>72.48</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="8">
-        <v>153</v>
+      <c r="A153" s="1">
+        <v>152</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D153" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E153" s="1">
-        <v>72.58</v>
+        <v>72.540000000000006</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="8">
-        <v>154</v>
+      <c r="A154" s="1">
+        <v>153</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D154" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E154" s="1">
         <v>72.58</v>
@@ -16284,34 +16314,34 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="8">
-        <v>155</v>
+    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D155" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E155" s="1">
-        <v>72.62</v>
+        <v>72.58</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="8">
-        <v>156</v>
+    <row r="156" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D156" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E156" s="1">
         <v>72.62</v>
@@ -16321,326 +16351,344 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="8">
-        <v>157</v>
+      <c r="A157" s="1">
+        <v>156</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157" s="2">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E157" s="1">
-        <v>72.63</v>
+        <v>72.62</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="8">
-        <v>158</v>
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D158" s="2">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E158" s="1">
-        <v>72.66</v>
+        <v>72.63</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="8">
-        <v>159</v>
+    <row r="159" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D159" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E159" s="1">
-        <v>72.790000000000006</v>
+        <v>72.66</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="8">
-        <v>160</v>
+      <c r="A160" s="1">
+        <v>159</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D160" s="2">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E160" s="1">
-        <v>72.8</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="8">
-        <v>161</v>
+      <c r="A161" s="1">
+        <v>160</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D161" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E161" s="1">
-        <v>72.81</v>
+        <v>72.8</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="8">
-        <v>162</v>
+    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D162" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E162" s="1">
-        <v>72.84</v>
+        <v>72.81</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="8">
-        <v>163</v>
+    <row r="163" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D163" s="2">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E163" s="1">
-        <v>72.87</v>
+        <v>72.84</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="8">
-        <v>164</v>
+      <c r="A164" s="1">
+        <v>163</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D164" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E164" s="1">
-        <v>72.91</v>
+        <v>72.87</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="8">
-        <v>165</v>
+      <c r="A165" s="1">
+        <v>164</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D165" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E165" s="1">
-        <v>72.92</v>
+        <v>72.91</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="8">
-        <v>166</v>
+      <c r="A166" s="1">
+        <v>165</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D166" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E166" s="1">
-        <v>72.94</v>
+        <v>72.92</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="8">
-        <v>167</v>
+      <c r="A167" s="1">
+        <v>166</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D167" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E167" s="1">
-        <v>73</v>
+        <v>72.94</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="8">
-        <v>168</v>
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D168" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E168" s="1">
-        <v>73.08</v>
+        <v>73</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="8">
-        <v>169</v>
+    <row r="169" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D169" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E169" s="1">
-        <v>73.5</v>
+        <v>73.08</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="8">
-        <v>170</v>
+      <c r="A170" s="1">
+        <v>169</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D170" s="2">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E170" s="1">
-        <v>73.86</v>
+        <v>73.5</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="8">
-        <v>171</v>
+      <c r="A171" s="1">
+        <v>170</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D171" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E171" s="1">
-        <v>74.069999999999993</v>
+        <v>73.86</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="8">
-        <v>172</v>
+      <c r="A172" s="1">
+        <v>171</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D172" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E172" s="1">
-        <v>74.180000000000007</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="8">
-        <v>173</v>
+      <c r="A173" s="1">
+        <v>172</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D173" s="2">
+        <v>34</v>
+      </c>
+      <c r="E173" s="1">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D174" s="2">
         <v>40</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E174" s="1">
         <v>74.83</v>
       </c>
-      <c r="F173" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
-        <v>174</v>
-      </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="6" t="s">
+      <c r="F174" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D175" s="3">
         <v>41</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E175" s="4">
         <v>75.069999999999993</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F175" s="7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -16651,15 +16699,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3FDDC9ECC3E0845BB2D1A34105D3E6C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d6a908a52e9567910018a2bfa666353">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e8e73d5-3f47-4801-aac9-48e251d731d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="250938a5f60774c7bded818a7b354f4a" ns3:_="">
     <xsd:import namespace="3e8e73d5-3f47-4801-aac9-48e251d731d0"/>
@@ -16809,6 +16848,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -16818,14 +16866,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F71F08A-359B-43F8-B215-CB2C2C93E443}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC687096-1E16-491D-8E4F-8EDA859E1791}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16839,6 +16879,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F71F08A-359B-43F8-B215-CB2C2C93E443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
